--- a/public/demo/filing_demo.xlsx
+++ b/public/demo/filing_demo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="206">
   <si>
     <t>案件编码</t>
   </si>
@@ -504,9 +504,6 @@
   </si>
   <si>
     <t>ddd</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>公务员及参公管理人员</t>
@@ -678,6 +675,21 @@
   <si>
     <t>1、贪污贿赂,挪用公款;</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>624110199004122000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>621010129292828292</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证</t>
+    <rPh sb="0" eb="1">
+      <t>shen'fen'zheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -756,7 +768,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -780,6 +792,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1061,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EB3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DX1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1072,7 +1087,7 @@
     <col min="4" max="4" width="9" style="6"/>
     <col min="5" max="5" width="13" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="6"/>
-    <col min="8" max="8" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="5.1640625" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="6" bestFit="1" customWidth="1"/>
@@ -1593,9 +1608,11 @@
       <c r="F2" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>205</v>
+      </c>
       <c r="H2" s="8" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>62</v>
@@ -1616,7 +1633,7 @@
         <v>66</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>66</v>
@@ -1629,7 +1646,7 @@
         <v>61</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U2" s="4" t="s">
         <v>73</v>
@@ -1638,26 +1655,26 @@
         <v>74</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X2" s="4"/>
       <c r="Y2" s="5">
         <v>41275</v>
       </c>
       <c r="Z2" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA2" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="AC2" s="4" t="s">
         <v>67</v>
       </c>
       <c r="AD2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AE2" s="4" t="s">
         <v>64</v>
@@ -1670,13 +1687,13 @@
       </c>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AJ2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="AK2" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AL2" s="4"/>
       <c r="AM2" s="4"/>
@@ -1694,10 +1711,10 @@
         <v>43131</v>
       </c>
       <c r="AS2" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT2" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="AT2" s="4" t="s">
-        <v>163</v>
       </c>
       <c r="AU2" s="5">
         <v>43010</v>
@@ -1712,11 +1729,11 @@
         <v>61</v>
       </c>
       <c r="BA2" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="BB2" s="4"/>
       <c r="BC2" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BD2" s="4" t="s">
         <v>75</v>
@@ -1729,7 +1746,7 @@
       </c>
       <c r="BG2" s="4"/>
       <c r="BH2" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BI2" s="5">
         <v>43131</v>
@@ -1788,7 +1805,7 @@
         <v>2007</v>
       </c>
       <c r="CG2" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="CH2" s="5">
         <v>43255</v>
@@ -1803,7 +1820,7 @@
         <v>43131</v>
       </c>
       <c r="CL2" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="CM2" s="5">
         <v>43068</v>
@@ -1812,7 +1829,7 @@
         <v>43131</v>
       </c>
       <c r="CO2" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="CP2" s="5">
         <v>43110</v>
@@ -1833,13 +1850,13 @@
         <v>3</v>
       </c>
       <c r="CV2" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="CW2" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="CW2" s="4" t="s">
+      <c r="CX2" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="CX2" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="CY2" s="5">
         <v>43166</v>
@@ -1863,16 +1880,16 @@
         <v>43261</v>
       </c>
       <c r="DF2" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="DG2" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="DH2" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="DG2" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="DH2" s="4" t="s">
+      <c r="DI2" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="DI2" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="DJ2" s="4" t="s">
         <v>134</v>
@@ -1887,7 +1904,7 @@
         <v>137</v>
       </c>
       <c r="DN2" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="DO2" s="4" t="s">
         <v>139</v>
@@ -1902,7 +1919,7 @@
         <v>4</v>
       </c>
       <c r="DS2" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="DT2" s="4">
         <v>3</v>
@@ -1911,7 +1928,7 @@
         <v>145</v>
       </c>
       <c r="DV2" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="DW2" s="5">
         <v>43131</v>
@@ -1947,13 +1964,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="H3" s="4">
-        <v>6.2411019900412198E+17</v>
+      <c r="H3" s="8" t="s">
+        <v>203</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>62</v>
@@ -1965,7 +1982,7 @@
         <v>18264</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>72</v>
@@ -1974,13 +1991,13 @@
         <v>66</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>66</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R3" s="5">
         <v>25934</v>
@@ -1989,37 +2006,37 @@
         <v>61</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U3" s="4" t="s">
         <v>73</v>
       </c>
       <c r="V3" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="X3" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="Y3" s="5">
         <v>35431</v>
       </c>
       <c r="Z3" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA3" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AB3" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AC3" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD3" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="AC3" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="AD3" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="AE3" s="4" t="s">
         <v>64</v>
@@ -2028,17 +2045,17 @@
         <v>79</v>
       </c>
       <c r="AG3" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH3" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="AH3" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="AI3" s="4"/>
       <c r="AJ3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="AK3" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AL3" s="4"/>
       <c r="AM3" s="4"/>
@@ -2054,10 +2071,10 @@
         <v>43251</v>
       </c>
       <c r="AS3" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="AT3" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="AT3" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="AU3" s="5">
         <v>43248</v>
@@ -2066,7 +2083,7 @@
         <v>43251</v>
       </c>
       <c r="AW3" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AX3" s="5">
         <v>43248</v>
@@ -2078,28 +2095,28 @@
         <v>66</v>
       </c>
       <c r="BA3" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="BB3" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="BC3" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="BC3" s="4" t="s">
+      <c r="BD3" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="BD3" s="4" t="s">
+      <c r="BE3" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="BE3" s="4" t="s">
+      <c r="BF3" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="BF3" s="4" t="s">
-        <v>194</v>
       </c>
       <c r="BG3" s="4" t="s">
         <v>66</v>
       </c>
       <c r="BH3" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BI3" s="5">
         <v>43251</v>
@@ -2110,13 +2127,13 @@
       </c>
       <c r="BL3" s="4"/>
       <c r="BM3" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BN3" s="5">
         <v>43251</v>
       </c>
       <c r="BO3" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BP3" s="5">
         <v>43251</v>
@@ -2179,7 +2196,7 @@
         <v>43251</v>
       </c>
       <c r="CL3" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="CM3" s="5">
         <v>43248</v>
@@ -2188,7 +2205,7 @@
         <v>43251</v>
       </c>
       <c r="CO3" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="CP3" s="5">
         <v>43248</v>
@@ -2197,10 +2214,10 @@
         <v>4</v>
       </c>
       <c r="CR3" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="CS3" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="CS3" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="CT3" s="4" t="s">
         <v>49</v>
@@ -2208,7 +2225,7 @@
       <c r="CU3" s="4"/>
       <c r="CV3" s="4"/>
       <c r="CW3" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="CX3" s="4" t="s">
         <v>54</v>
@@ -2235,16 +2252,16 @@
         <v>43251</v>
       </c>
       <c r="DF3" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="DG3" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="DH3" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="DG3" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="DH3" s="4" t="s">
+      <c r="DI3" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="DI3" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="DJ3" s="4" t="s">
         <v>134</v>
@@ -2259,7 +2276,7 @@
         <v>137</v>
       </c>
       <c r="DN3" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="DO3" s="4" t="s">
         <v>139</v>
@@ -2283,7 +2300,7 @@
         <v>145</v>
       </c>
       <c r="DV3" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="DW3" s="5">
         <v>43251</v>
